--- a/biology/Zoologie/Indoreonectes/Indoreonectes.xlsx
+++ b/biology/Zoologie/Indoreonectes/Indoreonectes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Indoreonectes est un genre de poissons d'eau douce téléostéens de la famille des Nemacheilidae (ordre des Cypriniformes).
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Indoreonectes se rencontrent en Inde.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (15 avril 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (15 avril 2024) :
 Indoreonectes evezardi (Day, 1872)
 Indoreonectes telanganaensis Prasad, Srinivasulu, Srinivasulu, Anoop &amp; Dahanukar, 2020</t>
         </is>
@@ -574,10 +590,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Indoreonectes Rita &amp; Bănărescu, 1978[1]. 
-Ce genre a été créé initialement comme un sous-genre d’Oreonectes par S. D. Rita Kumari (d) et Petre Mihai Bănărescu dans une publication coécrite avec Teodor T. Nalbant[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Indoreonectes Rita &amp; Bănărescu, 1978. 
+Ce genre a été créé initialement comme un sous-genre d’Oreonectes par S. D. Rita Kumari (d) et Petre Mihai Bănărescu dans une publication coécrite avec Teodor T. Nalbant.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Indoreonectes, composé du préfixe Indo- pour l'Inde et du genre Oreonectes a été proposé comme un sous-genre de celui-ci[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Indoreonectes, composé du préfixe Indo- pour l'Inde et du genre Oreonectes a été proposé comme un sous-genre de celui-ci.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) S. D. Rita Kumari, Petre M. Bănărescu et Teodor T. Nalbant, « Oreonectes (Indoreonectes) keralensis a new subgenus and species of loach from Kerala, India (Pisces, Cobitidae) », Travaux du Muséum d’Histoire Naturelle “Grigore Antipa”, Roumanie, vol. 19,‎ 1978, p. 185-188 (ISSN 0068-3078).</t>
         </is>
